--- a/DataSheets/demowebshop.xlsx
+++ b/DataSheets/demowebshop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QTP-Hybrid-Framework\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5112BC94-0A3A-4397-B1F8-8211B7C96784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AE17C3-9060-42D1-820B-3212571A2200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -694,19 +694,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.36328125" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -726,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -746,7 +748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -766,7 +768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -796,18 +798,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -818,7 +820,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -829,7 +831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -840,7 +842,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -861,16 +863,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.21875" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -878,7 +880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -886,7 +888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -894,7 +896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -919,22 +921,22 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="1" max="1" width="46.36328125" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="6" max="8" width="16.90625" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -963,7 +965,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -988,7 +990,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1030,7 +1032,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1051,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1069,24 +1071,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26.5546875" customWidth="1"/>
-    <col min="12" max="12" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+    <col min="11" max="11" width="26.54296875" customWidth="1"/>
+    <col min="12" max="12" width="34.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>60</v>
       </c>
@@ -1125,7 +1127,7 @@
       </c>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>74</v>
       </c>
@@ -1164,7 +1166,7 @@
       </c>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -1203,7 +1205,7 @@
       </c>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>79</v>
       </c>
@@ -1242,7 +1244,7 @@
       </c>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>81</v>
       </c>
@@ -1281,7 +1283,7 @@
       </c>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1306,29 +1308,29 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="8" max="8" width="27.90625" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="26.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.44140625" customWidth="1"/>
-    <col min="18" max="18" width="44.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" customWidth="1"/>
+    <col min="11" max="11" width="17.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" customWidth="1"/>
+    <col min="17" max="17" width="18.453125" customWidth="1"/>
+    <col min="18" max="18" width="44.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -1386,7 +1388,7 @@
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1440,7 +1442,7 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1492,7 +1494,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1540,7 +1542,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1562,7 +1564,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1584,7 +1586,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1606,7 +1608,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1628,7 +1630,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1650,7 +1652,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1672,7 +1674,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="Q13" s="4"/>
     </row>
   </sheetData>
@@ -1689,17 +1691,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="1" max="1" width="41.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1716,7 +1718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1750,7 +1752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
